--- a/changes/9mm-ammo.xlsx
+++ b/changes/9mm-ammo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069E4F36-BAE5-4485-B783-C58D59C37D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF98FF7A-3BF6-4427-A62E-A51C216BFBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9mm-ammo" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>new</t>
   </si>
@@ -80,39 +80,21 @@
     <t>price</t>
   </si>
   <si>
-    <t>9x19_remington_umc_115gr_fmj_l9mm3b</t>
-  </si>
-  <si>
     <t>Remington UMC 115gr FMJ (L9MM3B)</t>
   </si>
   <si>
-    <t>9x19_federal_ballisticlean_100gr_rht_frangible_bc9nt3</t>
-  </si>
-  <si>
     <t>Federal BallistiClean 100gr RHT Frangible (BC9NT3)</t>
   </si>
   <si>
-    <t>9x19_federal_classic_115gr_hi_shok_jhp_9bp</t>
-  </si>
-  <si>
     <t>Federal Classic 115gr HI-SHOK JHP (9BP)</t>
   </si>
   <si>
-    <t>9x19_speer_lawman_124gr_tmj_53651</t>
-  </si>
-  <si>
     <t>Speer Lawman 124gr TMJ (53651)</t>
   </si>
   <si>
-    <t>9x19_armscor_usa_147gr_fmj_fac9_5n</t>
-  </si>
-  <si>
     <t>ARMSCOR USA 147gr Subsonic FMJ (FAC9-5N)</t>
   </si>
   <si>
-    <t>9x19_piney_mountain_124gr_green_tracer</t>
-  </si>
-  <si>
     <t>Piney Mountain 124gr Green Tracer</t>
   </si>
   <si>
@@ -171,6 +153,42 @@
   </si>
   <si>
     <t>damage</t>
+  </si>
+  <si>
+    <t>9x19_remington_umc_115gr_fmj</t>
+  </si>
+  <si>
+    <t>9x19 Remington UMC 115gr FMJ</t>
+  </si>
+  <si>
+    <t>9x19_federal_hishok_115gr_jhp</t>
+  </si>
+  <si>
+    <t>9x19 Federal Hi-Shok 115gr JHP</t>
+  </si>
+  <si>
+    <t>9x19_supernova_119gr_green_tracer</t>
+  </si>
+  <si>
+    <t>9x19 Supernova 119gr Green Tracer</t>
+  </si>
+  <si>
+    <t>9x19_winchester_m822_124gr_fmj</t>
+  </si>
+  <si>
+    <t>9x19 Winchester M882 124gr FMJ</t>
+  </si>
+  <si>
+    <t>9x19_norma_mle_94gr_rht_frangible</t>
+  </si>
+  <si>
+    <t>9x19 Norma MLE 94gr RHT Frangible</t>
+  </si>
+  <si>
+    <t>9x19_armscor_usa_147gr_subsonic</t>
+  </si>
+  <si>
+    <t>9x19 ARMSCOR USA 147gr Subsonic FMJ</t>
   </si>
 </sst>
 </file>
@@ -654,9 +672,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -703,7 +720,14 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -725,9 +749,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -765,7 +789,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -871,7 +895,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1013,7 +1037,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1024,12 +1048,13 @@
   <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
     <col min="3" max="14" width="6.7109375" customWidth="1"/>
     <col min="15" max="15" width="8.7109375" customWidth="1"/>
     <col min="16" max="35" width="6.7109375" customWidth="1"/>
@@ -1037,135 +1062,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
       <c r="T1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="X1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="V2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AD2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AE2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
         <v>0.09</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>0.4</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>-150</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>2000</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3">
         <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+(U3-22)*2.5+P3/300+S3*2</f>
         <v>28.406666666666666</v>
       </c>
@@ -1175,7 +1181,7 @@
       <c r="Q3">
         <v>40</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <v>0.7</v>
       </c>
       <c r="S3">
@@ -1191,7 +1197,7 @@
         <v>27</v>
       </c>
       <c r="X3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Y3">
         <v>1180</v>
@@ -1233,32 +1239,25 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
         <v>-1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>0.09</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>0.1</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>750</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4">
         <f t="shared" ref="N4:N8" si="0">C4-D4*20-E4*0.8-F4*0.6-H4*5+(U4-22)*2.5+P4/300+S4*2</f>
         <v>5.4666666666666677</v>
       </c>
@@ -1268,7 +1267,7 @@
       <c r="Q4">
         <v>60</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <v>0.5</v>
       </c>
       <c r="S4">
@@ -1284,7 +1283,7 @@
         <v>9</v>
       </c>
       <c r="X4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Y4">
         <v>1100</v>
@@ -1302,28 +1301,19 @@
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>0.1</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5">
         <f t="shared" si="0"/>
         <v>10.1</v>
       </c>
@@ -1333,7 +1323,7 @@
       <c r="Q5">
         <v>50</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>0.5</v>
       </c>
       <c r="S5">
@@ -1349,7 +1339,7 @@
         <v>10</v>
       </c>
       <c r="X5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="Y5">
         <v>1240</v>
@@ -1391,34 +1381,28 @@
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
         <v>0.1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>-0.05</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>1500</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6">
         <f t="shared" si="0"/>
         <v>1.2300000000000002</v>
       </c>
@@ -1428,7 +1412,7 @@
       <c r="Q6">
         <v>50</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <v>0.1</v>
       </c>
       <c r="S6">
@@ -1444,7 +1428,7 @@
         <v>7</v>
       </c>
       <c r="X6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y6">
         <v>1090</v>
@@ -1486,34 +1470,28 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>-5</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>-10</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>-0.4</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>-100</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>600</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7">
         <f t="shared" si="0"/>
         <v>19.653333333333332</v>
       </c>
@@ -1523,7 +1501,7 @@
       <c r="Q7">
         <v>60</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <v>0.3</v>
       </c>
       <c r="S7">
@@ -1539,7 +1517,7 @@
         <v>11</v>
       </c>
       <c r="X7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Y7">
         <v>1240</v>
@@ -1581,36 +1559,31 @@
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>0.05</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>-15</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>-20</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>0.2</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>-200</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>1000</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8">
         <f t="shared" si="0"/>
         <v>27.54</v>
       </c>
@@ -1620,7 +1593,7 @@
       <c r="Q8">
         <v>50</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <v>0.1</v>
       </c>
       <c r="S8">
@@ -1636,7 +1609,7 @@
         <v>7</v>
       </c>
       <c r="X8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Y8">
         <v>950</v>
@@ -1665,71 +1638,69 @@
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" t="s">
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="S10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
         <v>-1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>0.08</v>
       </c>
       <c r="E11">
@@ -1738,22 +1709,18 @@
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>0.4</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1">
+      <c r="J11">
         <v>-100</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1">
+      <c r="M11">
         <v>2000</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11">
         <f>C11-D11*20-E11*0.8-F11*0.6-H11*5+(U11-22)*2.5+P11/300+S11*2</f>
-        <v>27.833333333333332</v>
+        <v>42.833333333333336</v>
       </c>
       <c r="P11">
         <v>1150</v>
@@ -1761,27 +1728,27 @@
       <c r="Q11">
         <v>60</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="1">
         <v>0.2</v>
       </c>
       <c r="S11">
         <v>0.05</v>
       </c>
       <c r="U11">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>0.09</v>
       </c>
       <c r="E12">
@@ -1790,24 +1757,21 @@
       <c r="F12">
         <v>-4</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>0.05</v>
       </c>
-      <c r="I12" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="I12">
+        <v>0.12</v>
+      </c>
+      <c r="J12">
         <v>-150</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1">
+      <c r="M12">
         <v>750</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12">
         <f t="shared" ref="N12:N16" si="3">C12-D12*20-E12*0.8-F12*0.6-H12*5+(U12-22)*2.5+P12/300+S12*2</f>
-        <v>21.556666666666665</v>
+        <v>39.056666666666665</v>
       </c>
       <c r="P12">
         <v>1100</v>
@@ -1815,27 +1779,27 @@
       <c r="Q12">
         <v>50</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="1">
         <v>0.3</v>
       </c>
       <c r="S12">
         <v>0.12</v>
       </c>
       <c r="U12">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0.08</v>
       </c>
       <c r="E13">
@@ -1844,24 +1808,21 @@
       <c r="F13">
         <v>-5</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>0.1</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>0.04</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1">
+      <c r="M13">
         <v>0</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13">
         <f t="shared" si="3"/>
-        <v>20.466666666666665</v>
+        <v>37.966666666666661</v>
       </c>
       <c r="P13">
         <v>1250</v>
@@ -1869,27 +1830,27 @@
       <c r="Q13">
         <v>70</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="1">
         <v>0.2</v>
       </c>
       <c r="S13">
         <v>0.2</v>
       </c>
       <c r="U13">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14">
         <v>0.1</v>
       </c>
       <c r="E14">
@@ -1898,24 +1859,21 @@
       <c r="F14">
         <v>-12</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>-0.05</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>0.1</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14">
         <v>-150</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1">
+      <c r="M14">
         <v>1500</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14">
         <f t="shared" si="3"/>
-        <v>21.676666666666666</v>
+        <v>39.176666666666662</v>
       </c>
       <c r="P14">
         <v>1100</v>
@@ -1923,27 +1881,27 @@
       <c r="Q14">
         <v>50</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="1">
         <v>0.3</v>
       </c>
       <c r="S14">
         <v>0.18</v>
       </c>
       <c r="U14">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>0.06</v>
       </c>
       <c r="E15">
@@ -1952,24 +1910,21 @@
       <c r="F15">
         <v>-8</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>-0.2</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>-0.04</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1">
+      <c r="M15">
         <v>600</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15">
         <f t="shared" si="3"/>
-        <v>22.106666666666669</v>
+        <v>37.106666666666669</v>
       </c>
       <c r="P15">
         <v>1250</v>
@@ -1977,27 +1932,27 @@
       <c r="Q15">
         <v>70</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="1">
         <v>0.2</v>
       </c>
       <c r="S15">
         <v>0.02</v>
       </c>
       <c r="U15">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>0.12</v>
       </c>
       <c r="E16">
@@ -2006,24 +1961,21 @@
       <c r="F16">
         <v>-18</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>0.2</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>-0.04</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16">
         <v>-300</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1">
+      <c r="M16">
         <v>1200</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16">
         <f t="shared" si="3"/>
-        <v>21.626666666666665</v>
+        <v>36.626666666666658</v>
       </c>
       <c r="P16">
         <v>950</v>
@@ -2031,19 +1983,19 @@
       <c r="Q16">
         <v>80</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="1">
         <v>0.1</v>
       </c>
       <c r="S16">
         <v>0.08</v>
       </c>
       <c r="U16">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C11:D16 G11:U16">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>C11&lt;&gt;C3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/changes/9mm-ammo.xlsx
+++ b/changes/9mm-ammo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF98FF7A-3BF6-4427-A62E-A51C216BFBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1105D03-35C0-4437-B91B-81D4D58887ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,14 +720,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1048,7 +1041,7 @@
   <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,7 +1754,7 @@
         <v>0.05</v>
       </c>
       <c r="I12">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="J12">
         <v>-150</v>
@@ -1995,7 +1988,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C11:D16 G11:U16">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>C11&lt;&gt;C3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/changes/9mm-ammo.xlsx
+++ b/changes/9mm-ammo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1105D03-35C0-4437-B91B-81D4D58887ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F21BAB-85DC-4380-984F-80EB7C485C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1754,7 @@
         <v>0.05</v>
       </c>
       <c r="I12">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="J12">
         <v>-150</v>
@@ -1805,7 +1805,7 @@
         <v>0.1</v>
       </c>
       <c r="I13">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="J13">
         <v>0</v>

--- a/changes/9mm-ammo.xlsx
+++ b/changes/9mm-ammo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F21BAB-85DC-4380-984F-80EB7C485C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F3454FA-9537-4684-AEC4-44B1D113EBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,7 +720,21 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1038,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,7 +1708,7 @@
         <v>-1</v>
       </c>
       <c r="D11">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1712,20 +1726,20 @@
         <v>2000</v>
       </c>
       <c r="N11">
-        <f>C11-D11*20-E11*0.8-F11*0.6-H11*5+(U11-22)*2.5+P11/300+S11*2</f>
-        <v>42.833333333333336</v>
+        <f>C11-D11*20-E11*0.8-F11*0.6-H11*5+(U11-25)*1.5+J11/300+S11*2+R11/2</f>
+        <v>12.656666666666666</v>
       </c>
       <c r="P11">
         <v>1150</v>
       </c>
       <c r="Q11">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="R11" s="1">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="S11">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="U11">
         <v>45</v>
@@ -1742,13 +1756,13 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="E12">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="F12">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>0.05</v>
@@ -1763,20 +1777,20 @@
         <v>750</v>
       </c>
       <c r="N12">
-        <f t="shared" ref="N12:N16" si="3">C12-D12*20-E12*0.8-F12*0.6-H12*5+(U12-22)*2.5+P12/300+S12*2</f>
-        <v>39.056666666666665</v>
+        <f t="shared" ref="N12:N16" si="3">C12-D12*20-E12*0.8-F12*0.6-H12*5+(U12-25)*1.5+J12/300+S12*2+R12/2</f>
+        <v>12.799999999999999</v>
       </c>
       <c r="P12">
         <v>1100</v>
       </c>
       <c r="Q12">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="R12" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="S12">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="U12">
         <v>34</v>
@@ -1793,13 +1807,13 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="E13">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0.1</v>
@@ -1815,22 +1829,22 @@
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>37.966666666666661</v>
+        <v>11.25</v>
       </c>
       <c r="P13">
         <v>1250</v>
       </c>
       <c r="Q13">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R13" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="S13">
         <v>0.2</v>
       </c>
       <c r="U13">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
@@ -1844,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="E14">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="F14">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="H14">
         <v>-0.05</v>
@@ -1866,7 +1880,7 @@
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>39.176666666666662</v>
+        <v>14.98</v>
       </c>
       <c r="P14">
         <v>1100</v>
@@ -1875,10 +1889,10 @@
         <v>50</v>
       </c>
       <c r="R14" s="1">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="S14">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="U14">
         <v>31</v>
@@ -1895,16 +1909,16 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="F15">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="H15">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="I15">
         <v>-0.04</v>
@@ -1917,19 +1931,19 @@
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
-        <v>37.106666666666669</v>
+        <v>14.670000000000002</v>
       </c>
       <c r="P15">
         <v>1250</v>
       </c>
       <c r="Q15">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="R15" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S15">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="U15">
         <v>29</v>
@@ -1946,13 +1960,13 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="E16">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="F16">
-        <v>-18</v>
+        <v>-10</v>
       </c>
       <c r="H16">
         <v>0.2</v>
@@ -1968,26 +1982,110 @@
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
-        <v>36.626666666666658</v>
+        <v>15.290000000000003</v>
       </c>
       <c r="P16">
         <v>950</v>
       </c>
       <c r="Q16">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R16" s="1">
         <v>0.1</v>
       </c>
       <c r="S16">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="U16">
         <v>27</v>
       </c>
     </row>
+    <row r="18" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>1150</v>
+      </c>
+      <c r="Q18">
+        <v>60</v>
+      </c>
+      <c r="R18">
+        <v>0.2</v>
+      </c>
+      <c r="S18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>1100</v>
+      </c>
+      <c r="Q19">
+        <v>50</v>
+      </c>
+      <c r="R19">
+        <v>0.3</v>
+      </c>
+      <c r="S19">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="20" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>1250</v>
+      </c>
+      <c r="Q20">
+        <v>70</v>
+      </c>
+      <c r="R20">
+        <v>0.2</v>
+      </c>
+      <c r="S20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>1100</v>
+      </c>
+      <c r="Q21">
+        <v>50</v>
+      </c>
+      <c r="R21">
+        <v>0.3</v>
+      </c>
+      <c r="S21">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="22" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>1250</v>
+      </c>
+      <c r="Q22">
+        <v>70</v>
+      </c>
+      <c r="R22">
+        <v>0.2</v>
+      </c>
+      <c r="S22">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>950</v>
+      </c>
+      <c r="Q23">
+        <v>80</v>
+      </c>
+      <c r="R23">
+        <v>0.1</v>
+      </c>
+      <c r="S23">
+        <v>0.08</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C11:D16 G11:U16">
+  <conditionalFormatting sqref="C11:D16 G11:O16 Q11:U16">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>C11&lt;&gt;C3</formula>
     </cfRule>

--- a/changes/9mm-ammo.xlsx
+++ b/changes/9mm-ammo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F3454FA-9537-4684-AEC4-44B1D113EBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E811619B-070A-4CC6-8FCC-A70BCB2E5458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>new</t>
   </si>
@@ -720,7 +720,35 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1055,7 +1083,7 @@
   <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,8 +1721,14 @@
       <c r="S10" t="s">
         <v>38</v>
       </c>
+      <c r="T10" t="s">
+        <v>33</v>
+      </c>
       <c r="U10" t="s">
         <v>31</v>
+      </c>
+      <c r="V10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
@@ -1711,13 +1745,13 @@
         <v>0.02</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="J11">
         <v>-100</v>
@@ -1726,8 +1760,8 @@
         <v>2000</v>
       </c>
       <c r="N11">
-        <f>C11-D11*20-E11*0.8-F11*0.6-H11*5+(U11-25)*1.5+J11/300+S11*2+R11/2</f>
-        <v>12.656666666666666</v>
+        <f t="shared" ref="N11:N16" si="3">C11-D11*20-E11*0.8-F11*0.6-H11*5+(AVERAGE(T11:V11)-25)*2+J11/300+S11*2+R11/2</f>
+        <v>16.889999999999997</v>
       </c>
       <c r="P11">
         <v>1150</v>
@@ -1741,44 +1775,53 @@
       <c r="S11">
         <v>0.02</v>
       </c>
+      <c r="T11">
+        <v>50</v>
+      </c>
       <c r="U11">
         <v>45</v>
+      </c>
+      <c r="V11">
+        <v>39</v>
+      </c>
+      <c r="W11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>-1</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="H12">
-        <v>0.05</v>
+        <v>-0.05</v>
       </c>
       <c r="I12">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="J12">
         <v>-150</v>
       </c>
       <c r="M12">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="N12">
-        <f t="shared" ref="N12:N16" si="3">C12-D12*20-E12*0.8-F12*0.6-H12*5+(U12-25)*1.5+J12/300+S12*2+R12/2</f>
-        <v>12.799999999999999</v>
+        <f t="shared" si="3"/>
+        <v>16.533333333333328</v>
       </c>
       <c r="P12">
         <v>1100</v>
@@ -1792,8 +1835,17 @@
       <c r="S12">
         <v>0.1</v>
       </c>
+      <c r="T12">
+        <v>41</v>
+      </c>
       <c r="U12">
         <v>34</v>
+      </c>
+      <c r="V12">
+        <v>26</v>
+      </c>
+      <c r="W12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
@@ -1816,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0.02</v>
@@ -1829,7 +1881,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>11.25</v>
+        <v>15.25</v>
       </c>
       <c r="P13">
         <v>1250</v>
@@ -1843,44 +1895,53 @@
       <c r="S13">
         <v>0.2</v>
       </c>
+      <c r="T13">
+        <v>39</v>
+      </c>
       <c r="U13">
         <v>32</v>
+      </c>
+      <c r="V13">
+        <v>25</v>
+      </c>
+      <c r="W13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E14">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F14">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="H14">
-        <v>-0.05</v>
+        <v>0.05</v>
       </c>
       <c r="I14">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="J14">
         <v>-150</v>
       </c>
       <c r="M14">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>14.98</v>
+        <v>15.613333333333337</v>
       </c>
       <c r="P14">
         <v>1100</v>
@@ -1894,8 +1955,17 @@
       <c r="S14">
         <v>0.09</v>
       </c>
+      <c r="T14">
+        <v>37</v>
+      </c>
       <c r="U14">
         <v>31</v>
+      </c>
+      <c r="V14">
+        <v>24</v>
+      </c>
+      <c r="W14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
@@ -1906,13 +1976,13 @@
         <v>49</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F15">
         <v>-3</v>
@@ -1931,7 +2001,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
-        <v>14.670000000000002</v>
+        <v>15.136666666666667</v>
       </c>
       <c r="P15">
         <v>1250</v>
@@ -1945,8 +2015,17 @@
       <c r="S15">
         <v>0.11</v>
       </c>
+      <c r="T15">
+        <v>33</v>
+      </c>
       <c r="U15">
         <v>29</v>
+      </c>
+      <c r="V15">
+        <v>23</v>
+      </c>
+      <c r="W15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
@@ -1957,7 +2036,7 @@
         <v>51</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>0.06</v>
@@ -1966,7 +2045,7 @@
         <v>-8</v>
       </c>
       <c r="F16">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="H16">
         <v>0.2</v>
@@ -1982,7 +2061,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
-        <v>15.290000000000003</v>
+        <v>15.89</v>
       </c>
       <c r="P16">
         <v>950</v>
@@ -1996,14 +2075,20 @@
       <c r="S16">
         <v>0.02</v>
       </c>
+      <c r="T16">
+        <v>33</v>
+      </c>
       <c r="U16">
         <v>27</v>
       </c>
+      <c r="V16">
+        <v>21</v>
+      </c>
+      <c r="W16" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="18" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P18">
-        <v>1150</v>
-      </c>
+    <row r="18" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q18">
         <v>60</v>
       </c>
@@ -2014,10 +2099,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P19">
-        <v>1100</v>
-      </c>
+    <row r="19" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q19">
         <v>50</v>
       </c>
@@ -2028,10 +2110,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="20" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P20">
-        <v>1250</v>
-      </c>
+    <row r="20" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q20">
         <v>70</v>
       </c>
@@ -2042,10 +2121,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P21">
-        <v>1100</v>
-      </c>
+    <row r="21" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q21">
         <v>50</v>
       </c>
@@ -2056,10 +2132,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="22" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P22">
-        <v>1250</v>
-      </c>
+    <row r="22" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q22">
         <v>70</v>
       </c>
@@ -2070,10 +2143,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P23">
-        <v>950</v>
-      </c>
+    <row r="23" spans="17:19" x14ac:dyDescent="0.25">
       <c r="Q23">
         <v>80</v>
       </c>
@@ -2085,9 +2155,34 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C11:D16 G11:O16 Q11:U16">
+  <conditionalFormatting sqref="C11:D11 C13:D13 G11:O11 G13:M13 T11:V12 T15:V16 G15:M16 O15:O16 O13 N11:N16">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>C11&lt;&gt;C3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14:V14">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>T14&lt;&gt;T5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:D16">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>C15&lt;&gt;C7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14:V14 C14:D14 G14:M14 O14">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>C14&lt;&gt;C4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13:V13">
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>T13&lt;&gt;T5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:D12 G12:M12 O12">
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>C12&lt;&gt;C6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/changes/9mm-ammo.xlsx
+++ b/changes/9mm-ammo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E811619B-070A-4CC6-8FCC-A70BCB2E5458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E334D02F-20A5-47EA-BA84-362754CFA68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>magazine_capacity</t>
   </si>
   <si>
-    <t>bullet_deviation</t>
-  </si>
-  <si>
     <t>bullet_damage</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>9x19 ARMSCOR USA 147gr Subsonic FMJ</t>
+  </si>
+  <si>
+    <t>barrel_deviation</t>
   </si>
 </sst>
 </file>
@@ -720,21 +720,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -1083,7 +1069,7 @@
   <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,13 +1084,13 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -1130,63 +1116,63 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
       </c>
       <c r="N2" t="s">
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>37</v>
       </c>
-      <c r="S2" t="s">
-        <v>38</v>
-      </c>
       <c r="T2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" t="s">
         <v>31</v>
       </c>
-      <c r="V2" t="s">
-        <v>32</v>
-      </c>
       <c r="X2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3">
         <v>0.09</v>
@@ -1232,7 +1218,7 @@
         <v>27</v>
       </c>
       <c r="X3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y3">
         <v>1180</v>
@@ -1275,7 +1261,7 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -1318,7 +1304,7 @@
         <v>9</v>
       </c>
       <c r="X4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y4">
         <v>1100</v>
@@ -1337,7 +1323,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1374,7 +1360,7 @@
         <v>10</v>
       </c>
       <c r="X5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y5">
         <v>1240</v>
@@ -1417,7 +1403,7 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>0.1</v>
@@ -1463,7 +1449,7 @@
         <v>7</v>
       </c>
       <c r="X6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y6">
         <v>1090</v>
@@ -1506,7 +1492,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>7.0000000000000007E-2</v>
@@ -1552,7 +1538,7 @@
         <v>11</v>
       </c>
       <c r="X7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y7">
         <v>1240</v>
@@ -1595,7 +1581,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1644,7 +1630,7 @@
         <v>7</v>
       </c>
       <c r="X8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y8">
         <v>950</v>
@@ -1689,54 +1675,54 @@
         <v>8</v>
       </c>
       <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>11</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>12</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>13</v>
-      </c>
-      <c r="M10" t="s">
-        <v>14</v>
       </c>
       <c r="N10" t="s">
         <v>3</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" t="s">
         <v>37</v>
       </c>
-      <c r="S10" t="s">
-        <v>38</v>
-      </c>
       <c r="T10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" t="s">
         <v>31</v>
-      </c>
-      <c r="V10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -1785,15 +1771,15 @@
         <v>39</v>
       </c>
       <c r="W11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1845,15 +1831,15 @@
         <v>26</v>
       </c>
       <c r="W12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1905,15 +1891,15 @@
         <v>25</v>
       </c>
       <c r="W13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
         <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>45</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1965,15 +1951,15 @@
         <v>24</v>
       </c>
       <c r="W14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
         <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2025,15 +2011,15 @@
         <v>23</v>
       </c>
       <c r="W15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
         <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -2085,7 +2071,7 @@
         <v>21</v>
       </c>
       <c r="W16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="17:19" x14ac:dyDescent="0.25">
@@ -2155,34 +2141,29 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C11:D11 C13:D13 G11:O11 G13:M13 T11:V12 T15:V16 G15:M16 O15:O16 O13 N11:N16">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="C11:D11 G11:O11 T11:V13 N11:N16 C13:D13 G13:M13 O13 G15:M16 O15:O16 T15:V16">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>C11&lt;&gt;C3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14:V14">
-    <cfRule type="expression" dxfId="6" priority="3">
-      <formula>T14&lt;&gt;T5</formula>
+  <conditionalFormatting sqref="C12:D12 G12:M12 O12">
+    <cfRule type="expression" dxfId="3" priority="10">
+      <formula>C12&lt;&gt;C6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:D14 G14:M14 O14 T14:V14">
+    <cfRule type="expression" dxfId="2" priority="7">
+      <formula>C14&lt;&gt;C4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D16">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>C15&lt;&gt;C7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14:V14 C14:D14 G14:M14 O14">
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>C14&lt;&gt;C4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T13:V13">
-    <cfRule type="expression" dxfId="3" priority="8">
-      <formula>T13&lt;&gt;T5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:D12 G12:M12 O12">
-    <cfRule type="expression" dxfId="2" priority="10">
-      <formula>C12&lt;&gt;C6</formula>
+  <conditionalFormatting sqref="T14:V14">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>T14&lt;&gt;T5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
